--- a/biology/Zoologie/Carcinophora/Carcinophora.xlsx
+++ b/biology/Zoologie/Carcinophora/Carcinophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcinophora est un genre d'insectes dermaptères assigné selon les auteurs à la famille des Carcinophoridae ou à celle des Anisolabididae.
-Ce genre a été décrit en 1876 par l'entomologiste américain Samuel Hubbard Scudder (1837-1911). L'espèce type est Chelidura robusta Scudder (= Carcinophora americana)[2].
+Ce genre a été décrit en 1876 par l'entomologiste américain Samuel Hubbard Scudder (1837-1911). L'espèce type est Chelidura robusta Scudder (= Carcinophora americana).
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (14 février 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (14 février 2019) :
 Carcinophora occidentalis (Kirby, 1896)
 Carcinophora percheroni (Guérin &amp; Percheron, 1838)
 Carcinophora venusta Steinmann, 1989
-Selon Catalogue of Life                                   (14 février 2019)[3] :
+Selon Catalogue of Life                                   (14 février 2019) :
 Carcinophora americana (Palisot de Beauvois, 1817)
 Carcinophora apolinari (Hebard, 1919)
 Carcinophora boesemani Steinmann, 1981
@@ -540,7 +554,7 @@
 Carcinophora venezuelica Brindle, 1968
 Carcinophora venusta Steinmann, 1989
 Carcinophora waddyi Burr, 1904
-Selon  Species File              (14 février 2019)[2] :
+Selon  Species File              (14 février 2019) :
 Carcinophora americana (Palisot de Beauvois, 1817)
 Carcinophora apolinari (Hebard, 1919)
 Carcinophora boesemani Steinmann, 1981
